--- a/medicine/Pharmacie/Givosiran/Givosiran.xlsx
+++ b/medicine/Pharmacie/Givosiran/Givosiran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Givosiran est un médicament utilisé dans le traitement de la porphyrie aiguë intermittente. Il est vendu sous la marque Givlaari[1].
+Le Givosiran est un médicament utilisé dans le traitement de la porphyrie aiguë intermittente. Il est vendu sous la marque Givlaari.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un petit ARN interférent  qui diminue la quantité de l'enzyme acide aminolévulinique synthase 1  et diminue donc la production d'hème [1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un petit ARN interférent  qui diminue la quantité de l'enzyme acide aminolévulinique synthase 1  et diminue donc la production d'hème ,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un médicament utilisé pour traiter la porphyrie aiguë intermittente[1]. Il est administré par injection sous-cutanée[1]. Le médicament est utilisé chez les personnes de plus de 11 ans[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un médicament utilisé pour traiter la porphyrie aiguë intermittente. Il est administré par injection sous-cutanée. Le médicament est utilisé chez les personnes de plus de 11 ans.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires de ce médicament  comprennent des douleurs au site d’injection, des nausées ou de la fatigue[1]. D'autres effets secondaires peuvent inclure l'anaphylaxie, des problèmes rénaux oudes problèmes hépatiques[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires de ce médicament  comprennent des douleurs au site d’injection, des nausées ou de la fatigue. D'autres effets secondaires peuvent inclure l'anaphylaxie, des problèmes rénaux oudes problèmes hépatiques. 
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le médicament a été approuvé pour un usage médical aux États-Unis en 2019 et en Europe en 2020[3],[1]. Au Royaume-Uni, un flacon de 189 mg coûte au NHS environ 4 200 livres sterling  à partir de 2021[2]. Le prix aux États-Unis est d'environ 40 700 dollars américains par flacon[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le médicament a été approuvé pour un usage médical aux États-Unis en 2019 et en Europe en 2020,. Au Royaume-Uni, un flacon de 189 mg coûte au NHS environ 4 200 livres sterling  à partir de 2021. Le prix aux États-Unis est d'environ 40 700 dollars américains par flacon.
 </t>
         </is>
       </c>
